--- a/Lecture 2(a).xlsx
+++ b/Lecture 2(a).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GITHUB\data-analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\GITHUB\data-analytics\data-analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E19107E-B38F-4DBF-AA81-E0600A2EA2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6418CEC-2248-40E1-9078-8572EF929E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{20FC5782-4233-48D6-BDF7-047106ECE25B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>Task 1: Employee Sheet – Basic Formatting</t>
   </si>
@@ -431,15 +431,18 @@
   <si>
     <t>=</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="[$₹-4009]\ #,##0.00"/>
-    <numFmt numFmtId="174" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="175" formatCode="[$₹-445]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$₹-4009]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$₹-445]\ #,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -637,94 +640,94 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1059,380 +1062,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>32000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>44896</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>45000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>44319</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>38000</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>52000</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>43749</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>30000</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>40300</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>43742</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
         <v>40600</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>43165</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2">
         <v>40900</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
         <v>41200</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>43750</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>41500</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2">
         <v>41800</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>42588</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>42100</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>42011</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2">
         <v>42400</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
         <v>42700</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>43751</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>43000</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>43300</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>41434</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2">
         <v>43600</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>40857</v>
       </c>
     </row>
@@ -1464,294 +1467,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="13">
         <v>45000</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="13">
         <v>1200</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="13">
         <v>18000</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="13">
         <v>62000</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="13">
         <v>48500</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="13">
         <v>55280</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="13">
         <v>62060</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <v>68840</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="13">
         <v>75620</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="13">
         <v>82400</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="13">
         <v>89180</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="13">
         <v>95960</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="13">
         <v>102740</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="13">
         <v>109520</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="13">
         <v>116300</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="13">
         <v>123080</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="13">
         <v>129860</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="13">
         <v>136640</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1783,414 +1786,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="16">
         <v>78</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="16">
         <v>82</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="16">
         <v>74</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="17">
         <v>0.78</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="16">
         <v>65</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="16">
         <v>70</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="16">
         <v>68</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="17">
         <v>0.67666666666666664</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="16">
         <v>90</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="16">
         <v>88</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="16">
         <v>92</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="17">
         <v>0.9</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="16">
         <v>35</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="16">
         <v>40</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="16">
         <v>38</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="17">
         <v>0.37666666666666665</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="16">
         <v>55</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="16">
         <v>60</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="16">
         <v>58</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="17">
         <v>0.57666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <v>58</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="18">
         <v>77</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="18">
         <v>89</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="17">
         <v>0.7466666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="18">
         <v>92</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="18">
         <v>68</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="18">
         <v>79</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="17">
         <v>0.79666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="18">
         <v>50</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="18">
         <v>85</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="18">
         <v>82</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="17">
         <v>0.72333333333333338</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="18">
         <v>98</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="18">
         <v>83</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="18">
         <v>90</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="17">
         <v>0.90333333333333332</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="18">
         <v>87</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="18">
         <v>61</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="18">
         <v>76</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="17">
         <v>0.7466666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="18">
         <v>59</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="18">
         <v>69</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="18">
         <v>87</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="17">
         <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="18">
         <v>64</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="18">
         <v>81</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="18">
         <v>86</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="17">
         <v>0.77</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="18">
         <v>78</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="18">
         <v>60</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="18">
         <v>86</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="17">
         <v>0.7466666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="18">
         <v>77</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="18">
         <v>92</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="18">
         <v>90</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="17">
         <v>0.86333333333333329</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="18">
         <v>93</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="18">
         <v>86</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="18">
         <v>88</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="17">
         <v>0.89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="18">
         <v>88</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="18">
         <v>100</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="18">
         <v>70</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="17">
         <v>0.86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="18">
         <v>65</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="18">
         <v>63</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="18">
         <v>81</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="17">
         <v>0.69666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="18">
         <v>50</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="18">
         <v>100</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="18">
         <v>77</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="17">
         <v>0.75666666666666671</v>
       </c>
     </row>
@@ -2208,7 +2211,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,248 +2222,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="22"/>
+      <c r="H3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="20">
         <v>45292</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <v>12000</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="20">
         <v>45352</v>
       </c>
-      <c r="C5" s="27">
-        <v>25000</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="C5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="20">
         <v>45413</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <v>8000</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="20">
         <v>45505</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="19">
         <v>32000</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="20">
         <v>45566</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="19">
         <v>15000</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="20">
         <v>45292</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="19">
         <v>22300</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="20">
         <v>45352</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="19">
         <v>23600</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="20">
         <v>45413</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="19">
         <v>24900</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="20">
         <v>45505</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="19">
         <v>26200</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="20">
         <v>45566</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="19">
         <v>27500</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="20">
         <v>45292</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="19">
         <v>28800</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="20">
         <v>45352</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="19">
         <v>30100</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="20">
         <v>45413</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="19">
         <v>31400</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="20">
         <v>45505</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="19">
         <v>32700</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="20">
         <v>45566</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="19">
         <v>34000</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="20">
         <v>45292</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="19">
         <v>35300</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="20">
         <v>45352</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="19">
         <v>36600</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="20">
         <v>45413</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="19">
         <v>37900</v>
       </c>
     </row>
